--- a/Data/Myctophid_Catalog.xlsx
+++ b/Data/Myctophid_Catalog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sra2g13\Documents\Myctophids\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sra2g13\Documents\PhD\GitHub\mytophid-ears\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="355">
   <si>
     <t>Summary</t>
   </si>
@@ -1057,13 +1057,49 @@
   </si>
   <si>
     <t>Useable species</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Carbonate</t>
+  </si>
+  <si>
+    <t>Muscle</t>
+  </si>
+  <si>
+    <t>Milled</t>
+  </si>
+  <si>
+    <t>Lat_dec</t>
+  </si>
+  <si>
+    <t>Long_dec</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1096,6 +1132,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1120,19 +1171,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1412,28 +1466,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1447,7 +1501,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1460,39 +1514,42 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>17</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="E5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>70</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1506,21 +1563,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>13</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1534,35 +1591,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>23</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>42</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1576,21 +1633,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>32</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>339</v>
       </c>
@@ -1603,8 +1660,24 @@
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>348</v>
+      </c>
+      <c r="B18" s="6">
+        <f>D14*3.46</f>
+        <v>380.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>349</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A4:C13">
@@ -1617,19 +1690,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G221"/>
+  <dimension ref="A1:K221"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F142" sqref="F142"/>
+    <sheetView tabSelected="1" topLeftCell="A180" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C184" sqref="C184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1651,8 +1724,20 @@
       <c r="G1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>350</v>
+      </c>
+      <c r="I1" t="s">
+        <v>351</v>
+      </c>
+      <c r="J1" t="s">
+        <v>352</v>
+      </c>
+      <c r="K1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -1674,8 +1759,20 @@
       <c r="G2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>354</v>
+      </c>
+      <c r="I2" t="s">
+        <v>345</v>
+      </c>
+      <c r="J2" t="s">
+        <v>345</v>
+      </c>
+      <c r="K2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -1697,8 +1794,20 @@
       <c r="G3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>354</v>
+      </c>
+      <c r="I3" t="s">
+        <v>345</v>
+      </c>
+      <c r="J3" t="s">
+        <v>345</v>
+      </c>
+      <c r="K3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>122</v>
       </c>
@@ -1717,8 +1826,23 @@
       <c r="F4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H4" t="s">
+        <v>354</v>
+      </c>
+      <c r="I4">
+        <v>-59.961500000000001</v>
+      </c>
+      <c r="J4">
+        <v>-47.188200000000002</v>
+      </c>
+      <c r="K4">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>123</v>
       </c>
@@ -1737,8 +1861,23 @@
       <c r="F5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>345</v>
+      </c>
+      <c r="H5" t="s">
+        <v>354</v>
+      </c>
+      <c r="I5">
+        <v>-60.032800000000002</v>
+      </c>
+      <c r="J5">
+        <v>-46.615699999999997</v>
+      </c>
+      <c r="K5">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -1757,8 +1896,23 @@
       <c r="F6" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>345</v>
+      </c>
+      <c r="H6" t="s">
+        <v>354</v>
+      </c>
+      <c r="I6">
+        <v>-59.961500000000001</v>
+      </c>
+      <c r="J6">
+        <v>-47.188200000000002</v>
+      </c>
+      <c r="K6">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -1777,8 +1931,23 @@
       <c r="F7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H7" t="s">
+        <v>354</v>
+      </c>
+      <c r="I7">
+        <v>-60.307299999999998</v>
+      </c>
+      <c r="J7">
+        <v>-46.701700000000002</v>
+      </c>
+      <c r="K7">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -1797,8 +1966,23 @@
       <c r="F8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>345</v>
+      </c>
+      <c r="H8" t="s">
+        <v>354</v>
+      </c>
+      <c r="I8">
+        <v>-60.307299999999998</v>
+      </c>
+      <c r="J8">
+        <v>-46.701700000000002</v>
+      </c>
+      <c r="K8">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>127</v>
       </c>
@@ -1817,8 +2001,23 @@
       <c r="F9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>345</v>
+      </c>
+      <c r="H9" t="s">
+        <v>354</v>
+      </c>
+      <c r="I9">
+        <v>-60.307299999999998</v>
+      </c>
+      <c r="J9">
+        <v>-46.701700000000002</v>
+      </c>
+      <c r="K9">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>128</v>
       </c>
@@ -1837,8 +2036,23 @@
       <c r="F10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>345</v>
+      </c>
+      <c r="H10" t="s">
+        <v>354</v>
+      </c>
+      <c r="I10">
+        <v>-60.307299999999998</v>
+      </c>
+      <c r="J10">
+        <v>-46.701700000000002</v>
+      </c>
+      <c r="K10">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>129</v>
       </c>
@@ -1857,8 +2071,23 @@
       <c r="F11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>345</v>
+      </c>
+      <c r="H11" t="s">
+        <v>354</v>
+      </c>
+      <c r="I11">
+        <v>-60.307299999999998</v>
+      </c>
+      <c r="J11">
+        <v>-46.701700000000002</v>
+      </c>
+      <c r="K11">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>130</v>
       </c>
@@ -1877,8 +2106,23 @@
       <c r="F12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>345</v>
+      </c>
+      <c r="H12" t="s">
+        <v>354</v>
+      </c>
+      <c r="I12">
+        <v>-60.307299999999998</v>
+      </c>
+      <c r="J12">
+        <v>-46.701700000000002</v>
+      </c>
+      <c r="K12">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>131</v>
       </c>
@@ -1897,8 +2141,23 @@
       <c r="F13" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>345</v>
+      </c>
+      <c r="H13" t="s">
+        <v>354</v>
+      </c>
+      <c r="I13">
+        <v>-60.307299999999998</v>
+      </c>
+      <c r="J13">
+        <v>-46.701700000000002</v>
+      </c>
+      <c r="K13">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>132</v>
       </c>
@@ -1917,8 +2176,23 @@
       <c r="F14" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>345</v>
+      </c>
+      <c r="H14" t="s">
+        <v>354</v>
+      </c>
+      <c r="I14">
+        <v>-60.307299999999998</v>
+      </c>
+      <c r="J14">
+        <v>-46.701700000000002</v>
+      </c>
+      <c r="K14">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -1937,8 +2211,23 @@
       <c r="F15" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>345</v>
+      </c>
+      <c r="H15" t="s">
+        <v>354</v>
+      </c>
+      <c r="I15">
+        <v>-60.307299999999998</v>
+      </c>
+      <c r="J15">
+        <v>-46.701700000000002</v>
+      </c>
+      <c r="K15">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>134</v>
       </c>
@@ -1957,8 +2246,23 @@
       <c r="F16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>345</v>
+      </c>
+      <c r="H16" t="s">
+        <v>354</v>
+      </c>
+      <c r="I16">
+        <v>-60.307299999999998</v>
+      </c>
+      <c r="J16">
+        <v>-46.701700000000002</v>
+      </c>
+      <c r="K16">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>135</v>
       </c>
@@ -1977,8 +2281,23 @@
       <c r="F17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>345</v>
+      </c>
+      <c r="H17" t="s">
+        <v>354</v>
+      </c>
+      <c r="I17">
+        <v>-60.307299999999998</v>
+      </c>
+      <c r="J17">
+        <v>-46.701700000000002</v>
+      </c>
+      <c r="K17">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>136</v>
       </c>
@@ -1997,8 +2316,23 @@
       <c r="F18" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>345</v>
+      </c>
+      <c r="H18" t="s">
+        <v>354</v>
+      </c>
+      <c r="I18">
+        <v>-60.307299999999998</v>
+      </c>
+      <c r="J18">
+        <v>-46.701700000000002</v>
+      </c>
+      <c r="K18">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>137</v>
       </c>
@@ -2017,8 +2351,23 @@
       <c r="F19" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>345</v>
+      </c>
+      <c r="H19" t="s">
+        <v>354</v>
+      </c>
+      <c r="I19">
+        <v>-60.232599999999998</v>
+      </c>
+      <c r="J19">
+        <v>-46.192100000000003</v>
+      </c>
+      <c r="K19">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>138</v>
       </c>
@@ -2037,8 +2386,23 @@
       <c r="F20" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>345</v>
+      </c>
+      <c r="H20" t="s">
+        <v>354</v>
+      </c>
+      <c r="I20">
+        <v>-60.232599999999998</v>
+      </c>
+      <c r="J20">
+        <v>-46.192100000000003</v>
+      </c>
+      <c r="K20">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>139</v>
       </c>
@@ -2057,8 +2421,23 @@
       <c r="F21" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>345</v>
+      </c>
+      <c r="H21" t="s">
+        <v>354</v>
+      </c>
+      <c r="I21">
+        <v>-60.034500000000001</v>
+      </c>
+      <c r="J21">
+        <v>-46.580599999999997</v>
+      </c>
+      <c r="K21">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>140</v>
       </c>
@@ -2077,8 +2456,23 @@
       <c r="F22" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>345</v>
+      </c>
+      <c r="H22" t="s">
+        <v>346</v>
+      </c>
+      <c r="I22">
+        <v>-60.034500000000001</v>
+      </c>
+      <c r="J22">
+        <v>-46.580599999999997</v>
+      </c>
+      <c r="K22">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>141</v>
       </c>
@@ -2097,8 +2491,23 @@
       <c r="F23" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>345</v>
+      </c>
+      <c r="H23" t="s">
+        <v>354</v>
+      </c>
+      <c r="I23">
+        <v>-60.034500000000001</v>
+      </c>
+      <c r="J23">
+        <v>-46.580599999999997</v>
+      </c>
+      <c r="K23">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>142</v>
       </c>
@@ -2117,8 +2526,23 @@
       <c r="F24" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>345</v>
+      </c>
+      <c r="H24" t="s">
+        <v>354</v>
+      </c>
+      <c r="I24">
+        <v>-60.032800000000002</v>
+      </c>
+      <c r="J24">
+        <v>-46.615699999999997</v>
+      </c>
+      <c r="K24">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>143</v>
       </c>
@@ -2137,8 +2561,23 @@
       <c r="F25" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>345</v>
+      </c>
+      <c r="H25" t="s">
+        <v>354</v>
+      </c>
+      <c r="I25">
+        <v>-60.032800000000002</v>
+      </c>
+      <c r="J25">
+        <v>-46.615699999999997</v>
+      </c>
+      <c r="K25">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>144</v>
       </c>
@@ -2157,8 +2596,23 @@
       <c r="F26" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>345</v>
+      </c>
+      <c r="H26" t="s">
+        <v>354</v>
+      </c>
+      <c r="I26">
+        <v>-60.032800000000002</v>
+      </c>
+      <c r="J26">
+        <v>-46.615699999999997</v>
+      </c>
+      <c r="K26">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>145</v>
       </c>
@@ -2177,8 +2631,23 @@
       <c r="F27" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>345</v>
+      </c>
+      <c r="H27" t="s">
+        <v>354</v>
+      </c>
+      <c r="I27">
+        <v>-60.032800000000002</v>
+      </c>
+      <c r="J27">
+        <v>-46.615699999999997</v>
+      </c>
+      <c r="K27">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>146</v>
       </c>
@@ -2197,8 +2666,23 @@
       <c r="F28" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>345</v>
+      </c>
+      <c r="H28" t="s">
+        <v>354</v>
+      </c>
+      <c r="I28">
+        <v>-60.232599999999998</v>
+      </c>
+      <c r="J28">
+        <v>-46.192100000000003</v>
+      </c>
+      <c r="K28">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>147</v>
       </c>
@@ -2217,8 +2701,23 @@
       <c r="F29" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>345</v>
+      </c>
+      <c r="H29" t="s">
+        <v>354</v>
+      </c>
+      <c r="I29">
+        <v>-60.032800000000002</v>
+      </c>
+      <c r="J29">
+        <v>-46.615699999999997</v>
+      </c>
+      <c r="K29">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>148</v>
       </c>
@@ -2237,8 +2736,23 @@
       <c r="F30" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>345</v>
+      </c>
+      <c r="H30" t="s">
+        <v>354</v>
+      </c>
+      <c r="I30">
+        <v>-60.032800000000002</v>
+      </c>
+      <c r="J30">
+        <v>-46.615699999999997</v>
+      </c>
+      <c r="K30">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>149</v>
       </c>
@@ -2257,8 +2771,23 @@
       <c r="F31" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>345</v>
+      </c>
+      <c r="H31" t="s">
+        <v>354</v>
+      </c>
+      <c r="I31">
+        <v>-60.073700000000002</v>
+      </c>
+      <c r="J31">
+        <v>-46.061199999999999</v>
+      </c>
+      <c r="K31">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>150</v>
       </c>
@@ -2277,8 +2806,23 @@
       <c r="F32" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>345</v>
+      </c>
+      <c r="H32" t="s">
+        <v>346</v>
+      </c>
+      <c r="I32">
+        <v>-60.073700000000002</v>
+      </c>
+      <c r="J32">
+        <v>-46.061199999999999</v>
+      </c>
+      <c r="K32">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>151</v>
       </c>
@@ -2297,8 +2841,23 @@
       <c r="F33" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>345</v>
+      </c>
+      <c r="H33" t="s">
+        <v>346</v>
+      </c>
+      <c r="I33">
+        <v>-60.073700000000002</v>
+      </c>
+      <c r="J33">
+        <v>-46.061199999999999</v>
+      </c>
+      <c r="K33">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -2317,8 +2876,23 @@
       <c r="F34" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>345</v>
+      </c>
+      <c r="H34" t="s">
+        <v>346</v>
+      </c>
+      <c r="I34">
+        <v>-60.073700000000002</v>
+      </c>
+      <c r="J34">
+        <v>-46.061199999999999</v>
+      </c>
+      <c r="K34">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>153</v>
       </c>
@@ -2337,8 +2911,23 @@
       <c r="F35" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>345</v>
+      </c>
+      <c r="H35" t="s">
+        <v>354</v>
+      </c>
+      <c r="I35">
+        <v>-60.073700000000002</v>
+      </c>
+      <c r="J35">
+        <v>-46.061199999999999</v>
+      </c>
+      <c r="K35">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>154</v>
       </c>
@@ -2357,8 +2946,23 @@
       <c r="F36" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>345</v>
+      </c>
+      <c r="H36" t="s">
+        <v>346</v>
+      </c>
+      <c r="I36">
+        <v>-60.073700000000002</v>
+      </c>
+      <c r="J36">
+        <v>-46.061199999999999</v>
+      </c>
+      <c r="K36">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>155</v>
       </c>
@@ -2377,8 +2981,14 @@
       <c r="F37" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>345</v>
+      </c>
+      <c r="H37" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>156</v>
       </c>
@@ -2397,8 +3007,23 @@
       <c r="F38" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>345</v>
+      </c>
+      <c r="H38" t="s">
+        <v>346</v>
+      </c>
+      <c r="I38">
+        <v>-58.01</v>
+      </c>
+      <c r="J38">
+        <v>-43.05</v>
+      </c>
+      <c r="K38">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>157</v>
       </c>
@@ -2417,8 +3042,23 @@
       <c r="F39" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>345</v>
+      </c>
+      <c r="H39" t="s">
+        <v>346</v>
+      </c>
+      <c r="I39">
+        <v>-58.02</v>
+      </c>
+      <c r="J39">
+        <v>-42.97</v>
+      </c>
+      <c r="K39">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>158</v>
       </c>
@@ -2437,8 +3077,23 @@
       <c r="F40" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>345</v>
+      </c>
+      <c r="H40" t="s">
+        <v>354</v>
+      </c>
+      <c r="I40">
+        <v>-58.01</v>
+      </c>
+      <c r="J40">
+        <v>-43.05</v>
+      </c>
+      <c r="K40">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>159</v>
       </c>
@@ -2457,8 +3112,23 @@
       <c r="F41" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>345</v>
+      </c>
+      <c r="H41" t="s">
+        <v>354</v>
+      </c>
+      <c r="I41">
+        <v>-58.01</v>
+      </c>
+      <c r="J41">
+        <v>-43.05</v>
+      </c>
+      <c r="K41">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>160</v>
       </c>
@@ -2477,8 +3147,23 @@
       <c r="F42" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>345</v>
+      </c>
+      <c r="H42" t="s">
+        <v>354</v>
+      </c>
+      <c r="I42">
+        <v>-58.01</v>
+      </c>
+      <c r="J42">
+        <v>-43.05</v>
+      </c>
+      <c r="K42">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>161</v>
       </c>
@@ -2497,8 +3182,23 @@
       <c r="F43" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>345</v>
+      </c>
+      <c r="H43" t="s">
+        <v>346</v>
+      </c>
+      <c r="I43">
+        <v>-58.01</v>
+      </c>
+      <c r="J43">
+        <v>-43.05</v>
+      </c>
+      <c r="K43">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>162</v>
       </c>
@@ -2517,8 +3217,23 @@
       <c r="F44" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>345</v>
+      </c>
+      <c r="H44" t="s">
+        <v>354</v>
+      </c>
+      <c r="I44">
+        <v>-58.01</v>
+      </c>
+      <c r="J44">
+        <v>-43.05</v>
+      </c>
+      <c r="K44">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>163</v>
       </c>
@@ -2537,8 +3252,23 @@
       <c r="F45" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>345</v>
+      </c>
+      <c r="H45" t="s">
+        <v>354</v>
+      </c>
+      <c r="I45">
+        <v>-58.01</v>
+      </c>
+      <c r="J45">
+        <v>-43.05</v>
+      </c>
+      <c r="K45">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>164</v>
       </c>
@@ -2557,8 +3287,23 @@
       <c r="F46" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>345</v>
+      </c>
+      <c r="H46" t="s">
+        <v>354</v>
+      </c>
+      <c r="I46">
+        <v>-58.01</v>
+      </c>
+      <c r="J46">
+        <v>-43.05</v>
+      </c>
+      <c r="K46">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>165</v>
       </c>
@@ -2577,8 +3322,23 @@
       <c r="F47" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>345</v>
+      </c>
+      <c r="H47" t="s">
+        <v>354</v>
+      </c>
+      <c r="I47">
+        <v>-58.02</v>
+      </c>
+      <c r="J47">
+        <v>-42.97</v>
+      </c>
+      <c r="K47">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>166</v>
       </c>
@@ -2597,8 +3357,23 @@
       <c r="F48" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>345</v>
+      </c>
+      <c r="H48" t="s">
+        <v>354</v>
+      </c>
+      <c r="I48">
+        <v>-58.02</v>
+      </c>
+      <c r="J48">
+        <v>-42.97</v>
+      </c>
+      <c r="K48">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>167</v>
       </c>
@@ -2617,8 +3392,23 @@
       <c r="F49" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>345</v>
+      </c>
+      <c r="H49" t="s">
+        <v>354</v>
+      </c>
+      <c r="I49">
+        <v>-58.01</v>
+      </c>
+      <c r="J49">
+        <v>-43.05</v>
+      </c>
+      <c r="K49">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>168</v>
       </c>
@@ -2637,8 +3427,23 @@
       <c r="F50" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>345</v>
+      </c>
+      <c r="H50" t="s">
+        <v>354</v>
+      </c>
+      <c r="I50">
+        <v>-58.01</v>
+      </c>
+      <c r="J50">
+        <v>-43.05</v>
+      </c>
+      <c r="K50">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>169</v>
       </c>
@@ -2657,8 +3462,23 @@
       <c r="F51" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>345</v>
+      </c>
+      <c r="H51" t="s">
+        <v>354</v>
+      </c>
+      <c r="I51">
+        <v>-58.02</v>
+      </c>
+      <c r="J51">
+        <v>-42.97</v>
+      </c>
+      <c r="K51">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>170</v>
       </c>
@@ -2677,8 +3497,23 @@
       <c r="F52" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>345</v>
+      </c>
+      <c r="H52" t="s">
+        <v>354</v>
+      </c>
+      <c r="I52">
+        <v>-58.02</v>
+      </c>
+      <c r="J52">
+        <v>-42.97</v>
+      </c>
+      <c r="K52">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>171</v>
       </c>
@@ -2697,8 +3532,23 @@
       <c r="F53" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
+        <v>345</v>
+      </c>
+      <c r="H53" t="s">
+        <v>346</v>
+      </c>
+      <c r="I53">
+        <v>-60.232599999999998</v>
+      </c>
+      <c r="J53">
+        <v>-46.192100000000003</v>
+      </c>
+      <c r="K53">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>172</v>
       </c>
@@ -2717,8 +3567,23 @@
       <c r="F54" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>345</v>
+      </c>
+      <c r="H54" t="s">
+        <v>354</v>
+      </c>
+      <c r="I54" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" t="s">
+        <v>20</v>
+      </c>
+      <c r="K54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>173</v>
       </c>
@@ -2737,8 +3602,23 @@
       <c r="F55" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>345</v>
+      </c>
+      <c r="H55" t="s">
+        <v>354</v>
+      </c>
+      <c r="I55" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" t="s">
+        <v>20</v>
+      </c>
+      <c r="K55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>174</v>
       </c>
@@ -2757,8 +3637,23 @@
       <c r="F56" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>345</v>
+      </c>
+      <c r="H56" t="s">
+        <v>354</v>
+      </c>
+      <c r="I56" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>175</v>
       </c>
@@ -2777,8 +3672,23 @@
       <c r="F57" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
+        <v>345</v>
+      </c>
+      <c r="H57" t="s">
+        <v>354</v>
+      </c>
+      <c r="I57" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" t="s">
+        <v>20</v>
+      </c>
+      <c r="K57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>176</v>
       </c>
@@ -2797,8 +3707,23 @@
       <c r="F58" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>345</v>
+      </c>
+      <c r="H58" t="s">
+        <v>354</v>
+      </c>
+      <c r="I58" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s">
+        <v>20</v>
+      </c>
+      <c r="K58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>177</v>
       </c>
@@ -2820,8 +3745,20 @@
       <c r="G59" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
+        <v>354</v>
+      </c>
+      <c r="I59">
+        <v>-54.99</v>
+      </c>
+      <c r="J59">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K59">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>178</v>
       </c>
@@ -2843,8 +3780,20 @@
       <c r="G60" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" t="s">
+        <v>354</v>
+      </c>
+      <c r="I60">
+        <v>-54.99</v>
+      </c>
+      <c r="J60">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K60">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>179</v>
       </c>
@@ -2866,8 +3815,20 @@
       <c r="G61" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" t="s">
+        <v>354</v>
+      </c>
+      <c r="I61">
+        <v>-54.99</v>
+      </c>
+      <c r="J61">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K61">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>180</v>
       </c>
@@ -2889,8 +3850,20 @@
       <c r="G62" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" t="s">
+        <v>346</v>
+      </c>
+      <c r="I62">
+        <v>-54.99</v>
+      </c>
+      <c r="J62">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K62">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>181</v>
       </c>
@@ -2912,8 +3885,20 @@
       <c r="G63" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" t="s">
+        <v>346</v>
+      </c>
+      <c r="I63">
+        <v>-54.99</v>
+      </c>
+      <c r="J63">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K63">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>182</v>
       </c>
@@ -2935,8 +3920,20 @@
       <c r="G64" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
+        <v>354</v>
+      </c>
+      <c r="I64">
+        <v>-54.99</v>
+      </c>
+      <c r="J64">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K64">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>183</v>
       </c>
@@ -2958,8 +3955,20 @@
       <c r="G65" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" t="s">
+        <v>354</v>
+      </c>
+      <c r="I65">
+        <v>-54.99</v>
+      </c>
+      <c r="J65">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K65">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>184</v>
       </c>
@@ -2981,8 +3990,20 @@
       <c r="G66" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" t="s">
+        <v>354</v>
+      </c>
+      <c r="I66">
+        <v>-54.99</v>
+      </c>
+      <c r="J66">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K66">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>185</v>
       </c>
@@ -3004,8 +4025,20 @@
       <c r="G67" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" t="s">
+        <v>354</v>
+      </c>
+      <c r="I67">
+        <v>-54.99</v>
+      </c>
+      <c r="J67">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K67">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>186</v>
       </c>
@@ -3027,8 +4060,20 @@
       <c r="G68" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" t="s">
+        <v>354</v>
+      </c>
+      <c r="I68">
+        <v>-54.99</v>
+      </c>
+      <c r="J68">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K68">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>187</v>
       </c>
@@ -3050,8 +4095,20 @@
       <c r="G69" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" t="s">
+        <v>354</v>
+      </c>
+      <c r="I69">
+        <v>-54.99</v>
+      </c>
+      <c r="J69">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K69">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>188</v>
       </c>
@@ -3073,8 +4130,20 @@
       <c r="G70" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" t="s">
+        <v>354</v>
+      </c>
+      <c r="I70">
+        <v>-54.99</v>
+      </c>
+      <c r="J70">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K70">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>189</v>
       </c>
@@ -3096,8 +4165,20 @@
       <c r="G71" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" t="s">
+        <v>354</v>
+      </c>
+      <c r="I71">
+        <v>-54.99</v>
+      </c>
+      <c r="J71">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K71">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>190</v>
       </c>
@@ -3119,8 +4200,20 @@
       <c r="G72" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" t="s">
+        <v>354</v>
+      </c>
+      <c r="I72">
+        <v>-54.99</v>
+      </c>
+      <c r="J72">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K72">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>191</v>
       </c>
@@ -3142,8 +4235,20 @@
       <c r="G73" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" t="s">
+        <v>354</v>
+      </c>
+      <c r="I73">
+        <v>-54.99</v>
+      </c>
+      <c r="J73">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K73">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>192</v>
       </c>
@@ -3162,8 +4267,23 @@
       <c r="F74" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G74" t="s">
+        <v>345</v>
+      </c>
+      <c r="H74" t="s">
+        <v>346</v>
+      </c>
+      <c r="I74">
+        <v>-50.55</v>
+      </c>
+      <c r="J74">
+        <v>-34.049999999999997</v>
+      </c>
+      <c r="K74">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>193</v>
       </c>
@@ -3182,8 +4302,23 @@
       <c r="F75" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G75" t="s">
+        <v>345</v>
+      </c>
+      <c r="H75" t="s">
+        <v>346</v>
+      </c>
+      <c r="I75" t="s">
+        <v>20</v>
+      </c>
+      <c r="J75" t="s">
+        <v>20</v>
+      </c>
+      <c r="K75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>194</v>
       </c>
@@ -3202,8 +4337,23 @@
       <c r="F76" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G76" t="s">
+        <v>345</v>
+      </c>
+      <c r="H76" t="s">
+        <v>346</v>
+      </c>
+      <c r="I76">
+        <v>-50.55</v>
+      </c>
+      <c r="J76">
+        <v>-34.049999999999997</v>
+      </c>
+      <c r="K76">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>195</v>
       </c>
@@ -3222,8 +4372,23 @@
       <c r="F77" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G77" t="s">
+        <v>345</v>
+      </c>
+      <c r="H77" t="s">
+        <v>346</v>
+      </c>
+      <c r="I77">
+        <v>-50.55</v>
+      </c>
+      <c r="J77">
+        <v>-34.049999999999997</v>
+      </c>
+      <c r="K77">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>196</v>
       </c>
@@ -3242,8 +4407,23 @@
       <c r="F78" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G78" t="s">
+        <v>345</v>
+      </c>
+      <c r="H78" t="s">
+        <v>346</v>
+      </c>
+      <c r="I78">
+        <v>-50.55</v>
+      </c>
+      <c r="J78">
+        <v>-34.049999999999997</v>
+      </c>
+      <c r="K78">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>197</v>
       </c>
@@ -3262,8 +4442,23 @@
       <c r="F79" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G79" t="s">
+        <v>345</v>
+      </c>
+      <c r="H79" t="s">
+        <v>346</v>
+      </c>
+      <c r="I79">
+        <v>-50.55</v>
+      </c>
+      <c r="J79">
+        <v>-34.049999999999997</v>
+      </c>
+      <c r="K79">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>198</v>
       </c>
@@ -3282,8 +4477,23 @@
       <c r="F80" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" t="s">
+        <v>345</v>
+      </c>
+      <c r="H80" t="s">
+        <v>346</v>
+      </c>
+      <c r="I80">
+        <v>-50.55</v>
+      </c>
+      <c r="J80">
+        <v>-34.049999999999997</v>
+      </c>
+      <c r="K80">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>199</v>
       </c>
@@ -3302,8 +4512,23 @@
       <c r="F81" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" t="s">
+        <v>345</v>
+      </c>
+      <c r="H81" t="s">
+        <v>346</v>
+      </c>
+      <c r="I81">
+        <v>-50.55</v>
+      </c>
+      <c r="J81">
+        <v>-34.049999999999997</v>
+      </c>
+      <c r="K81">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>200</v>
       </c>
@@ -3322,8 +4547,23 @@
       <c r="F82" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" t="s">
+        <v>345</v>
+      </c>
+      <c r="H82" t="s">
+        <v>346</v>
+      </c>
+      <c r="I82">
+        <v>-50.55</v>
+      </c>
+      <c r="J82">
+        <v>-34.049999999999997</v>
+      </c>
+      <c r="K82">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>201</v>
       </c>
@@ -3342,8 +4582,23 @@
       <c r="F83" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" t="s">
+        <v>345</v>
+      </c>
+      <c r="H83" t="s">
+        <v>346</v>
+      </c>
+      <c r="I83">
+        <v>-50.55</v>
+      </c>
+      <c r="J83">
+        <v>-34.049999999999997</v>
+      </c>
+      <c r="K83">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>202</v>
       </c>
@@ -3362,8 +4617,23 @@
       <c r="F84" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" t="s">
+        <v>345</v>
+      </c>
+      <c r="H84" t="s">
+        <v>346</v>
+      </c>
+      <c r="I84">
+        <v>-50.55</v>
+      </c>
+      <c r="J84">
+        <v>-34.049999999999997</v>
+      </c>
+      <c r="K84">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>203</v>
       </c>
@@ -3382,8 +4652,23 @@
       <c r="F85" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" t="s">
+        <v>345</v>
+      </c>
+      <c r="H85" t="s">
+        <v>346</v>
+      </c>
+      <c r="I85">
+        <v>-50.55</v>
+      </c>
+      <c r="J85">
+        <v>-34.049999999999997</v>
+      </c>
+      <c r="K85">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>204</v>
       </c>
@@ -3402,8 +4687,23 @@
       <c r="F86" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" t="s">
+        <v>345</v>
+      </c>
+      <c r="H86" t="s">
+        <v>346</v>
+      </c>
+      <c r="I86">
+        <v>-50.55</v>
+      </c>
+      <c r="J86">
+        <v>-34.049999999999997</v>
+      </c>
+      <c r="K86">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>205</v>
       </c>
@@ -3422,8 +4722,23 @@
       <c r="F87" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" t="s">
+        <v>345</v>
+      </c>
+      <c r="H87" t="s">
+        <v>346</v>
+      </c>
+      <c r="I87">
+        <v>-50.55</v>
+      </c>
+      <c r="J87">
+        <v>-34.049999999999997</v>
+      </c>
+      <c r="K87">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>206</v>
       </c>
@@ -3442,8 +4757,23 @@
       <c r="F88" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" t="s">
+        <v>345</v>
+      </c>
+      <c r="H88" t="s">
+        <v>346</v>
+      </c>
+      <c r="I88">
+        <v>-50.55</v>
+      </c>
+      <c r="J88">
+        <v>-34.049999999999997</v>
+      </c>
+      <c r="K88">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>207</v>
       </c>
@@ -3462,8 +4792,23 @@
       <c r="F89" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" t="s">
+        <v>345</v>
+      </c>
+      <c r="H89" t="s">
+        <v>346</v>
+      </c>
+      <c r="I89">
+        <v>-50.55</v>
+      </c>
+      <c r="J89">
+        <v>-34.049999999999997</v>
+      </c>
+      <c r="K89">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>208</v>
       </c>
@@ -3482,8 +4827,23 @@
       <c r="F90" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" t="s">
+        <v>345</v>
+      </c>
+      <c r="H90" t="s">
+        <v>346</v>
+      </c>
+      <c r="I90">
+        <v>-50.55</v>
+      </c>
+      <c r="J90">
+        <v>-34.049999999999997</v>
+      </c>
+      <c r="K90">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>209</v>
       </c>
@@ -3502,8 +4862,23 @@
       <c r="F91" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91" t="s">
+        <v>345</v>
+      </c>
+      <c r="H91" t="s">
+        <v>346</v>
+      </c>
+      <c r="I91">
+        <v>-60.032800000000002</v>
+      </c>
+      <c r="J91">
+        <v>-46.615699999999997</v>
+      </c>
+      <c r="K91">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>210</v>
       </c>
@@ -3522,8 +4897,23 @@
       <c r="F92" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" t="s">
+        <v>345</v>
+      </c>
+      <c r="H92" t="s">
+        <v>346</v>
+      </c>
+      <c r="I92">
+        <v>-59.964100000000002</v>
+      </c>
+      <c r="J92">
+        <v>-47.177399999999999</v>
+      </c>
+      <c r="K92">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>212</v>
       </c>
@@ -3542,8 +4932,23 @@
       <c r="F93" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93" t="s">
+        <v>345</v>
+      </c>
+      <c r="H93" t="s">
+        <v>346</v>
+      </c>
+      <c r="I93">
+        <v>-60.307299999999998</v>
+      </c>
+      <c r="J93">
+        <v>-46.701700000000002</v>
+      </c>
+      <c r="K93">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>213</v>
       </c>
@@ -3562,8 +4967,23 @@
       <c r="F94" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" t="s">
+        <v>345</v>
+      </c>
+      <c r="H94" t="s">
+        <v>346</v>
+      </c>
+      <c r="I94">
+        <v>-60.307299999999998</v>
+      </c>
+      <c r="J94">
+        <v>-46.701700000000002</v>
+      </c>
+      <c r="K94">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>214</v>
       </c>
@@ -3582,8 +5002,23 @@
       <c r="F95" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95" t="s">
+        <v>345</v>
+      </c>
+      <c r="H95" t="s">
+        <v>346</v>
+      </c>
+      <c r="I95">
+        <v>-60.307299999999998</v>
+      </c>
+      <c r="J95">
+        <v>-46.701700000000002</v>
+      </c>
+      <c r="K95">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>215</v>
       </c>
@@ -3602,8 +5037,23 @@
       <c r="F96" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96" t="s">
+        <v>345</v>
+      </c>
+      <c r="H96" t="s">
+        <v>346</v>
+      </c>
+      <c r="I96">
+        <v>-52.86</v>
+      </c>
+      <c r="J96">
+        <v>-40.1</v>
+      </c>
+      <c r="K96">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>216</v>
       </c>
@@ -3622,8 +5072,23 @@
       <c r="F97" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97" t="s">
+        <v>345</v>
+      </c>
+      <c r="H97" t="s">
+        <v>354</v>
+      </c>
+      <c r="I97">
+        <v>-52.86</v>
+      </c>
+      <c r="J97">
+        <v>-40.1</v>
+      </c>
+      <c r="K97">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>217</v>
       </c>
@@ -3642,8 +5107,23 @@
       <c r="F98" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98" t="s">
+        <v>345</v>
+      </c>
+      <c r="H98" t="s">
+        <v>346</v>
+      </c>
+      <c r="I98">
+        <v>-60.307299999999998</v>
+      </c>
+      <c r="J98">
+        <v>-46.701700000000002</v>
+      </c>
+      <c r="K98">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>218</v>
       </c>
@@ -3662,8 +5142,23 @@
       <c r="F99" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99" t="s">
+        <v>345</v>
+      </c>
+      <c r="H99" t="s">
+        <v>346</v>
+      </c>
+      <c r="I99">
+        <v>-52.86</v>
+      </c>
+      <c r="J99">
+        <v>-40.1</v>
+      </c>
+      <c r="K99">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>219</v>
       </c>
@@ -3682,8 +5177,23 @@
       <c r="F100" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100" t="s">
+        <v>345</v>
+      </c>
+      <c r="H100" t="s">
+        <v>346</v>
+      </c>
+      <c r="I100">
+        <v>-52.86</v>
+      </c>
+      <c r="J100">
+        <v>-40.1</v>
+      </c>
+      <c r="K100">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>220</v>
       </c>
@@ -3702,8 +5212,23 @@
       <c r="F101" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101" t="s">
+        <v>345</v>
+      </c>
+      <c r="H101" t="s">
+        <v>346</v>
+      </c>
+      <c r="I101">
+        <v>-52.86</v>
+      </c>
+      <c r="J101">
+        <v>-40.1</v>
+      </c>
+      <c r="K101">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>221</v>
       </c>
@@ -3722,8 +5247,23 @@
       <c r="F102" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102" t="s">
+        <v>345</v>
+      </c>
+      <c r="H102" t="s">
+        <v>346</v>
+      </c>
+      <c r="I102">
+        <v>-52.86</v>
+      </c>
+      <c r="J102">
+        <v>-40.1</v>
+      </c>
+      <c r="K102">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>222</v>
       </c>
@@ -3742,8 +5282,23 @@
       <c r="F103" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103" t="s">
+        <v>345</v>
+      </c>
+      <c r="H103" t="s">
+        <v>346</v>
+      </c>
+      <c r="I103">
+        <v>-60.307299999999998</v>
+      </c>
+      <c r="J103">
+        <v>-46.701700000000002</v>
+      </c>
+      <c r="K103">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>223</v>
       </c>
@@ -3762,8 +5317,23 @@
       <c r="F104" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104" t="s">
+        <v>345</v>
+      </c>
+      <c r="H104" t="s">
+        <v>346</v>
+      </c>
+      <c r="I104">
+        <v>-60.307299999999998</v>
+      </c>
+      <c r="J104">
+        <v>-46.701700000000002</v>
+      </c>
+      <c r="K104">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>224</v>
       </c>
@@ -3782,8 +5352,23 @@
       <c r="F105" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105" t="s">
+        <v>345</v>
+      </c>
+      <c r="H105" t="s">
+        <v>346</v>
+      </c>
+      <c r="I105">
+        <v>-59.964100000000002</v>
+      </c>
+      <c r="J105">
+        <v>-47.177399999999999</v>
+      </c>
+      <c r="K105">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>225</v>
       </c>
@@ -3802,8 +5387,23 @@
       <c r="F106" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106" t="s">
+        <v>345</v>
+      </c>
+      <c r="H106" t="s">
+        <v>346</v>
+      </c>
+      <c r="I106">
+        <v>-60.032800000000002</v>
+      </c>
+      <c r="J106">
+        <v>-46.615699999999997</v>
+      </c>
+      <c r="K106">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>226</v>
       </c>
@@ -3822,8 +5422,23 @@
       <c r="F107" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107" t="s">
+        <v>345</v>
+      </c>
+      <c r="H107" t="s">
+        <v>354</v>
+      </c>
+      <c r="I107">
+        <v>-52.86</v>
+      </c>
+      <c r="J107">
+        <v>-40.1</v>
+      </c>
+      <c r="K107">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>227</v>
       </c>
@@ -3842,8 +5457,23 @@
       <c r="F108" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108" t="s">
+        <v>345</v>
+      </c>
+      <c r="H108" t="s">
+        <v>354</v>
+      </c>
+      <c r="I108">
+        <v>-60.032800000000002</v>
+      </c>
+      <c r="J108">
+        <v>-46.615699999999997</v>
+      </c>
+      <c r="K108">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>228</v>
       </c>
@@ -3862,8 +5492,23 @@
       <c r="F109" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109" t="s">
+        <v>345</v>
+      </c>
+      <c r="H109" t="s">
+        <v>354</v>
+      </c>
+      <c r="I109">
+        <v>-60.032800000000002</v>
+      </c>
+      <c r="J109">
+        <v>-46.615699999999997</v>
+      </c>
+      <c r="K109">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>229</v>
       </c>
@@ -3882,8 +5527,23 @@
       <c r="F110" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110" t="s">
+        <v>345</v>
+      </c>
+      <c r="H110" t="s">
+        <v>346</v>
+      </c>
+      <c r="I110">
+        <v>-60.102699999999999</v>
+      </c>
+      <c r="J110">
+        <v>-46.040599999999998</v>
+      </c>
+      <c r="K110">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>230</v>
       </c>
@@ -3902,8 +5562,23 @@
       <c r="F111" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111" t="s">
+        <v>345</v>
+      </c>
+      <c r="H111" t="s">
+        <v>354</v>
+      </c>
+      <c r="I111">
+        <v>-60.102699999999999</v>
+      </c>
+      <c r="J111">
+        <v>-46.040599999999998</v>
+      </c>
+      <c r="K111">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>231</v>
       </c>
@@ -3922,8 +5597,23 @@
       <c r="F112" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G112" t="s">
+        <v>345</v>
+      </c>
+      <c r="H112" t="s">
+        <v>346</v>
+      </c>
+      <c r="I112">
+        <v>-60.307299999999998</v>
+      </c>
+      <c r="J112">
+        <v>-46.701700000000002</v>
+      </c>
+      <c r="K112">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>232</v>
       </c>
@@ -3945,8 +5635,20 @@
       <c r="G113" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113" t="s">
+        <v>354</v>
+      </c>
+      <c r="I113">
+        <v>-54.99</v>
+      </c>
+      <c r="J113">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K113">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>233</v>
       </c>
@@ -3968,8 +5670,20 @@
       <c r="G114" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114" t="s">
+        <v>354</v>
+      </c>
+      <c r="I114">
+        <v>-54.99</v>
+      </c>
+      <c r="J114">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K114">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>234</v>
       </c>
@@ -3991,8 +5705,20 @@
       <c r="G115" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115" t="s">
+        <v>354</v>
+      </c>
+      <c r="I115">
+        <v>-54.99</v>
+      </c>
+      <c r="J115">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K115">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>235</v>
       </c>
@@ -4014,8 +5740,20 @@
       <c r="G116" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116" t="s">
+        <v>354</v>
+      </c>
+      <c r="I116">
+        <v>-54.99</v>
+      </c>
+      <c r="J116">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K116">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>236</v>
       </c>
@@ -4037,8 +5775,20 @@
       <c r="G117" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117" t="s">
+        <v>354</v>
+      </c>
+      <c r="I117">
+        <v>-54.99</v>
+      </c>
+      <c r="J117">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K117">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>237</v>
       </c>
@@ -4060,8 +5810,20 @@
       <c r="G118" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118" t="s">
+        <v>354</v>
+      </c>
+      <c r="I118">
+        <v>-54.99</v>
+      </c>
+      <c r="J118">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K118">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>238</v>
       </c>
@@ -4083,8 +5845,20 @@
       <c r="G119" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119" t="s">
+        <v>354</v>
+      </c>
+      <c r="I119">
+        <v>-54.99</v>
+      </c>
+      <c r="J119">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K119">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>211</v>
       </c>
@@ -4094,7 +5868,7 @@
       <c r="C120">
         <v>118</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D120" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E120" t="s">
@@ -4103,8 +5877,23 @@
       <c r="F120" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G120" t="s">
+        <v>345</v>
+      </c>
+      <c r="H120" t="s">
+        <v>354</v>
+      </c>
+      <c r="I120">
+        <v>-60.307299999999998</v>
+      </c>
+      <c r="J120">
+        <v>-46.701700000000002</v>
+      </c>
+      <c r="K120">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>239</v>
       </c>
@@ -4123,8 +5912,23 @@
       <c r="F121" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G121" t="s">
+        <v>345</v>
+      </c>
+      <c r="H121" t="s">
+        <v>354</v>
+      </c>
+      <c r="I121">
+        <v>-60.307299999999998</v>
+      </c>
+      <c r="J121">
+        <v>-46.701700000000002</v>
+      </c>
+      <c r="K121">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>240</v>
       </c>
@@ -4143,8 +5947,23 @@
       <c r="F122" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G122" t="s">
+        <v>345</v>
+      </c>
+      <c r="H122" t="s">
+        <v>354</v>
+      </c>
+      <c r="I122">
+        <v>-60.307299999999998</v>
+      </c>
+      <c r="J122">
+        <v>-46.701700000000002</v>
+      </c>
+      <c r="K122">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>241</v>
       </c>
@@ -4163,8 +5982,23 @@
       <c r="F123" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G123" t="s">
+        <v>345</v>
+      </c>
+      <c r="H123" t="s">
+        <v>354</v>
+      </c>
+      <c r="I123">
+        <v>-60.307299999999998</v>
+      </c>
+      <c r="J123">
+        <v>-46.701700000000002</v>
+      </c>
+      <c r="K123">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>242</v>
       </c>
@@ -4183,8 +6017,23 @@
       <c r="F124" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G124" t="s">
+        <v>345</v>
+      </c>
+      <c r="H124" t="s">
+        <v>354</v>
+      </c>
+      <c r="I124">
+        <v>-60.307299999999998</v>
+      </c>
+      <c r="J124">
+        <v>-46.701700000000002</v>
+      </c>
+      <c r="K124">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>243</v>
       </c>
@@ -4203,8 +6052,23 @@
       <c r="F125" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G125" t="s">
+        <v>345</v>
+      </c>
+      <c r="H125" t="s">
+        <v>354</v>
+      </c>
+      <c r="I125">
+        <v>-60.307299999999998</v>
+      </c>
+      <c r="J125">
+        <v>-46.701700000000002</v>
+      </c>
+      <c r="K125">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>244</v>
       </c>
@@ -4223,8 +6087,23 @@
       <c r="F126" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G126" t="s">
+        <v>345</v>
+      </c>
+      <c r="H126" t="s">
+        <v>354</v>
+      </c>
+      <c r="I126">
+        <v>-60.307299999999998</v>
+      </c>
+      <c r="J126">
+        <v>-46.701700000000002</v>
+      </c>
+      <c r="K126">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>245</v>
       </c>
@@ -4243,8 +6122,23 @@
       <c r="F127" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G127" t="s">
+        <v>345</v>
+      </c>
+      <c r="H127" t="s">
+        <v>354</v>
+      </c>
+      <c r="I127">
+        <v>-60.307299999999998</v>
+      </c>
+      <c r="J127">
+        <v>-46.701700000000002</v>
+      </c>
+      <c r="K127">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>246</v>
       </c>
@@ -4263,8 +6157,23 @@
       <c r="F128" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G128" t="s">
+        <v>345</v>
+      </c>
+      <c r="H128" t="s">
+        <v>354</v>
+      </c>
+      <c r="I128">
+        <v>-60.307299999999998</v>
+      </c>
+      <c r="J128">
+        <v>-46.701700000000002</v>
+      </c>
+      <c r="K128">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>247</v>
       </c>
@@ -4283,8 +6192,23 @@
       <c r="F129" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G129" t="s">
+        <v>345</v>
+      </c>
+      <c r="H129" t="s">
+        <v>354</v>
+      </c>
+      <c r="I129">
+        <v>-59.69</v>
+      </c>
+      <c r="J129">
+        <v>-44.09</v>
+      </c>
+      <c r="K129">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>342</v>
       </c>
@@ -4303,8 +6227,23 @@
       <c r="F130" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G130" t="s">
+        <v>345</v>
+      </c>
+      <c r="H130" t="s">
+        <v>354</v>
+      </c>
+      <c r="I130">
+        <v>-59.69</v>
+      </c>
+      <c r="J130">
+        <v>-44.09</v>
+      </c>
+      <c r="K130">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>248</v>
       </c>
@@ -4323,8 +6262,23 @@
       <c r="F131" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G131" t="s">
+        <v>345</v>
+      </c>
+      <c r="H131" t="s">
+        <v>354</v>
+      </c>
+      <c r="I131">
+        <v>-59.68</v>
+      </c>
+      <c r="J131">
+        <v>-44.14</v>
+      </c>
+      <c r="K131">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>249</v>
       </c>
@@ -4343,8 +6297,23 @@
       <c r="F132" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G132" t="s">
+        <v>345</v>
+      </c>
+      <c r="H132" t="s">
+        <v>354</v>
+      </c>
+      <c r="I132">
+        <v>-52.64</v>
+      </c>
+      <c r="J132">
+        <v>-39.090000000000003</v>
+      </c>
+      <c r="K132">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>250</v>
       </c>
@@ -4363,8 +6332,23 @@
       <c r="F133" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G133" t="s">
+        <v>345</v>
+      </c>
+      <c r="H133" t="s">
+        <v>354</v>
+      </c>
+      <c r="I133">
+        <v>-59.69</v>
+      </c>
+      <c r="J133">
+        <v>-44.09</v>
+      </c>
+      <c r="K133">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>251</v>
       </c>
@@ -4383,8 +6367,23 @@
       <c r="F134" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G134" t="s">
+        <v>345</v>
+      </c>
+      <c r="H134" t="s">
+        <v>354</v>
+      </c>
+      <c r="I134">
+        <v>-53.57</v>
+      </c>
+      <c r="J134">
+        <v>-37.659999999999997</v>
+      </c>
+      <c r="K134">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>252</v>
       </c>
@@ -4403,8 +6402,23 @@
       <c r="F135" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G135" t="s">
+        <v>345</v>
+      </c>
+      <c r="H135" t="s">
+        <v>354</v>
+      </c>
+      <c r="I135">
+        <v>-58.03</v>
+      </c>
+      <c r="J135">
+        <v>-42.93</v>
+      </c>
+      <c r="K135">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>253</v>
       </c>
@@ -4423,8 +6437,23 @@
       <c r="F136" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G136" t="s">
+        <v>345</v>
+      </c>
+      <c r="H136" t="s">
+        <v>354</v>
+      </c>
+      <c r="I136">
+        <v>-52.86</v>
+      </c>
+      <c r="J136">
+        <v>-40.11</v>
+      </c>
+      <c r="K136">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>254</v>
       </c>
@@ -4443,8 +6472,23 @@
       <c r="F137" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G137" t="s">
+        <v>345</v>
+      </c>
+      <c r="H137" t="s">
+        <v>354</v>
+      </c>
+      <c r="I137">
+        <v>-52.64</v>
+      </c>
+      <c r="J137">
+        <v>-39.090000000000003</v>
+      </c>
+      <c r="K137">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>255</v>
       </c>
@@ -4463,8 +6507,23 @@
       <c r="F138" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G138" t="s">
+        <v>345</v>
+      </c>
+      <c r="H138" t="s">
+        <v>354</v>
+      </c>
+      <c r="I138">
+        <v>-52.85</v>
+      </c>
+      <c r="J138">
+        <v>-40.090000000000003</v>
+      </c>
+      <c r="K138">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>256</v>
       </c>
@@ -4483,8 +6542,23 @@
       <c r="F139" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G139" t="s">
+        <v>345</v>
+      </c>
+      <c r="H139" t="s">
+        <v>354</v>
+      </c>
+      <c r="I139">
+        <v>-52.72</v>
+      </c>
+      <c r="J139">
+        <v>-39.08</v>
+      </c>
+      <c r="K139">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>257</v>
       </c>
@@ -4503,8 +6577,23 @@
       <c r="F140" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G140" t="s">
+        <v>345</v>
+      </c>
+      <c r="H140" t="s">
+        <v>354</v>
+      </c>
+      <c r="I140">
+        <v>-52.72</v>
+      </c>
+      <c r="J140">
+        <v>-39.08</v>
+      </c>
+      <c r="K140">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>258</v>
       </c>
@@ -4523,8 +6612,23 @@
       <c r="F141" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G141" t="s">
+        <v>345</v>
+      </c>
+      <c r="H141" t="s">
+        <v>354</v>
+      </c>
+      <c r="I141">
+        <v>-52.72</v>
+      </c>
+      <c r="J141">
+        <v>-39.08</v>
+      </c>
+      <c r="K141">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>259</v>
       </c>
@@ -4543,8 +6647,23 @@
       <c r="F142" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G142" t="s">
+        <v>345</v>
+      </c>
+      <c r="H142" t="s">
+        <v>354</v>
+      </c>
+      <c r="I142">
+        <v>-52.72</v>
+      </c>
+      <c r="J142">
+        <v>-39.08</v>
+      </c>
+      <c r="K142">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>260</v>
       </c>
@@ -4563,8 +6682,23 @@
       <c r="F143" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G143" t="s">
+        <v>345</v>
+      </c>
+      <c r="H143" t="s">
+        <v>354</v>
+      </c>
+      <c r="I143">
+        <v>-52.72</v>
+      </c>
+      <c r="J143">
+        <v>-39.08</v>
+      </c>
+      <c r="K143">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>261</v>
       </c>
@@ -4583,8 +6717,23 @@
       <c r="F144" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G144" t="s">
+        <v>345</v>
+      </c>
+      <c r="H144" t="s">
+        <v>354</v>
+      </c>
+      <c r="I144">
+        <v>-52.72</v>
+      </c>
+      <c r="J144">
+        <v>-39.08</v>
+      </c>
+      <c r="K144">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>262</v>
       </c>
@@ -4603,8 +6752,23 @@
       <c r="F145" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G145" t="s">
+        <v>345</v>
+      </c>
+      <c r="H145" t="s">
+        <v>354</v>
+      </c>
+      <c r="I145">
+        <v>-52.72</v>
+      </c>
+      <c r="J145">
+        <v>-39.08</v>
+      </c>
+      <c r="K145">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>263</v>
       </c>
@@ -4623,8 +6787,23 @@
       <c r="F146" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G146" t="s">
+        <v>345</v>
+      </c>
+      <c r="H146" t="s">
+        <v>354</v>
+      </c>
+      <c r="I146">
+        <v>-52.72</v>
+      </c>
+      <c r="J146">
+        <v>-39.08</v>
+      </c>
+      <c r="K146">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>264</v>
       </c>
@@ -4643,8 +6822,23 @@
       <c r="F147" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G147" t="s">
+        <v>345</v>
+      </c>
+      <c r="H147" t="s">
+        <v>354</v>
+      </c>
+      <c r="I147">
+        <v>-52.72</v>
+      </c>
+      <c r="J147">
+        <v>-39.08</v>
+      </c>
+      <c r="K147">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>265</v>
       </c>
@@ -4666,8 +6860,20 @@
       <c r="G148" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H148" t="s">
+        <v>354</v>
+      </c>
+      <c r="I148">
+        <v>-54.99</v>
+      </c>
+      <c r="J148">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K148">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>266</v>
       </c>
@@ -4689,8 +6895,20 @@
       <c r="G149" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H149" t="s">
+        <v>354</v>
+      </c>
+      <c r="I149">
+        <v>-54.99</v>
+      </c>
+      <c r="J149">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K149">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>267</v>
       </c>
@@ -4712,8 +6930,20 @@
       <c r="G150" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H150" t="s">
+        <v>354</v>
+      </c>
+      <c r="I150">
+        <v>-54.99</v>
+      </c>
+      <c r="J150">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K150">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>268</v>
       </c>
@@ -4735,8 +6965,20 @@
       <c r="G151" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H151" t="s">
+        <v>354</v>
+      </c>
+      <c r="I151">
+        <v>-54.99</v>
+      </c>
+      <c r="J151">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K151">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>269</v>
       </c>
@@ -4758,8 +7000,20 @@
       <c r="G152" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H152" t="s">
+        <v>354</v>
+      </c>
+      <c r="I152">
+        <v>-54.99</v>
+      </c>
+      <c r="J152">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K152">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>270</v>
       </c>
@@ -4781,8 +7035,20 @@
       <c r="G153" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H153" t="s">
+        <v>354</v>
+      </c>
+      <c r="I153">
+        <v>-54.99</v>
+      </c>
+      <c r="J153">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K153">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>271</v>
       </c>
@@ -4804,8 +7070,20 @@
       <c r="G154" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H154" t="s">
+        <v>354</v>
+      </c>
+      <c r="I154">
+        <v>-54.99</v>
+      </c>
+      <c r="J154">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K154">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>272</v>
       </c>
@@ -4827,8 +7105,20 @@
       <c r="G155" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H155" t="s">
+        <v>354</v>
+      </c>
+      <c r="I155">
+        <v>-54.99</v>
+      </c>
+      <c r="J155">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K155">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>273</v>
       </c>
@@ -4850,8 +7140,20 @@
       <c r="G156" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H156" t="s">
+        <v>354</v>
+      </c>
+      <c r="I156">
+        <v>-54.99</v>
+      </c>
+      <c r="J156">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K156">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>274</v>
       </c>
@@ -4873,8 +7175,20 @@
       <c r="G157" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H157" t="s">
+        <v>354</v>
+      </c>
+      <c r="I157">
+        <v>-54.99</v>
+      </c>
+      <c r="J157">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K157">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>275</v>
       </c>
@@ -4896,8 +7210,20 @@
       <c r="G158" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H158" t="s">
+        <v>354</v>
+      </c>
+      <c r="I158">
+        <v>-54.99</v>
+      </c>
+      <c r="J158">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K158">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>276</v>
       </c>
@@ -4919,8 +7245,20 @@
       <c r="G159" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H159" t="s">
+        <v>354</v>
+      </c>
+      <c r="I159">
+        <v>-54.99</v>
+      </c>
+      <c r="J159">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K159">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>277</v>
       </c>
@@ -4942,8 +7280,20 @@
       <c r="G160" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H160" t="s">
+        <v>354</v>
+      </c>
+      <c r="I160">
+        <v>-54.99</v>
+      </c>
+      <c r="J160">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K160">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>278</v>
       </c>
@@ -4965,8 +7315,20 @@
       <c r="G161" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H161" t="s">
+        <v>354</v>
+      </c>
+      <c r="I161">
+        <v>-54.99</v>
+      </c>
+      <c r="J161">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K161">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>279</v>
       </c>
@@ -4988,8 +7350,20 @@
       <c r="G162" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H162" t="s">
+        <v>354</v>
+      </c>
+      <c r="I162">
+        <v>-54.99</v>
+      </c>
+      <c r="J162">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K162">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>280</v>
       </c>
@@ -5011,8 +7385,20 @@
       <c r="G163" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H163" t="s">
+        <v>354</v>
+      </c>
+      <c r="I163">
+        <v>-54.99</v>
+      </c>
+      <c r="J163">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K163">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>281</v>
       </c>
@@ -5034,8 +7420,20 @@
       <c r="G164" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H164" t="s">
+        <v>354</v>
+      </c>
+      <c r="I164">
+        <v>-54.99</v>
+      </c>
+      <c r="J164">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K164">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>282</v>
       </c>
@@ -5057,8 +7455,20 @@
       <c r="G165" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H165" t="s">
+        <v>354</v>
+      </c>
+      <c r="I165">
+        <v>-54.99</v>
+      </c>
+      <c r="J165">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K165">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>283</v>
       </c>
@@ -5080,8 +7490,20 @@
       <c r="G166" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H166" t="s">
+        <v>354</v>
+      </c>
+      <c r="I166">
+        <v>-54.99</v>
+      </c>
+      <c r="J166">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K166">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>284</v>
       </c>
@@ -5103,8 +7525,20 @@
       <c r="G167" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H167" t="s">
+        <v>354</v>
+      </c>
+      <c r="I167">
+        <v>-54.99</v>
+      </c>
+      <c r="J167">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K167">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>285</v>
       </c>
@@ -5126,8 +7560,20 @@
       <c r="G168" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H168" t="s">
+        <v>354</v>
+      </c>
+      <c r="I168">
+        <v>-54.99</v>
+      </c>
+      <c r="J168">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K168">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>286</v>
       </c>
@@ -5149,8 +7595,20 @@
       <c r="G169" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H169" t="s">
+        <v>354</v>
+      </c>
+      <c r="I169">
+        <v>-54.99</v>
+      </c>
+      <c r="J169">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K169">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>287</v>
       </c>
@@ -5172,8 +7630,20 @@
       <c r="G170" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H170" t="s">
+        <v>354</v>
+      </c>
+      <c r="I170">
+        <v>-54.99</v>
+      </c>
+      <c r="J170">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K170">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>288</v>
       </c>
@@ -5195,8 +7665,20 @@
       <c r="G171" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H171" t="s">
+        <v>354</v>
+      </c>
+      <c r="I171">
+        <v>-54.99</v>
+      </c>
+      <c r="J171">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K171">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>289</v>
       </c>
@@ -5218,8 +7700,20 @@
       <c r="G172" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H172" t="s">
+        <v>354</v>
+      </c>
+      <c r="I172">
+        <v>-54.99</v>
+      </c>
+      <c r="J172">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K172">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>290</v>
       </c>
@@ -5241,8 +7735,20 @@
       <c r="G173" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H173" t="s">
+        <v>354</v>
+      </c>
+      <c r="I173">
+        <v>-54.99</v>
+      </c>
+      <c r="J173">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K173">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>291</v>
       </c>
@@ -5264,8 +7770,20 @@
       <c r="G174" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H174" t="s">
+        <v>354</v>
+      </c>
+      <c r="I174">
+        <v>-54.99</v>
+      </c>
+      <c r="J174">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K174">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>292</v>
       </c>
@@ -5287,8 +7805,20 @@
       <c r="G175" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H175" t="s">
+        <v>354</v>
+      </c>
+      <c r="I175">
+        <v>-54.99</v>
+      </c>
+      <c r="J175">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K175">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>293</v>
       </c>
@@ -5310,8 +7840,20 @@
       <c r="G176" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H176" t="s">
+        <v>354</v>
+      </c>
+      <c r="I176">
+        <v>-54.99</v>
+      </c>
+      <c r="J176">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K176">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>294</v>
       </c>
@@ -5333,8 +7875,20 @@
       <c r="G177" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H177" t="s">
+        <v>354</v>
+      </c>
+      <c r="I177">
+        <v>-54.99</v>
+      </c>
+      <c r="J177">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K177">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>295</v>
       </c>
@@ -5356,8 +7910,20 @@
       <c r="G178" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H178" t="s">
+        <v>354</v>
+      </c>
+      <c r="I178">
+        <v>-54.99</v>
+      </c>
+      <c r="J178">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K178">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>296</v>
       </c>
@@ -5379,8 +7945,20 @@
       <c r="G179" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H179" t="s">
+        <v>354</v>
+      </c>
+      <c r="I179">
+        <v>-54.99</v>
+      </c>
+      <c r="J179">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K179">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>297</v>
       </c>
@@ -5402,8 +7980,20 @@
       <c r="G180" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H180" t="s">
+        <v>354</v>
+      </c>
+      <c r="I180">
+        <v>-54.99</v>
+      </c>
+      <c r="J180">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K180">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>298</v>
       </c>
@@ -5422,8 +8012,23 @@
       <c r="F181" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G181" t="s">
+        <v>345</v>
+      </c>
+      <c r="H181" t="s">
+        <v>354</v>
+      </c>
+      <c r="I181">
+        <v>-52.74</v>
+      </c>
+      <c r="J181">
+        <v>-39.01</v>
+      </c>
+      <c r="K181">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>299</v>
       </c>
@@ -5442,8 +8047,23 @@
       <c r="F182" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G182" t="s">
+        <v>345</v>
+      </c>
+      <c r="H182" t="s">
+        <v>354</v>
+      </c>
+      <c r="I182">
+        <v>-52.87</v>
+      </c>
+      <c r="J182">
+        <v>-40.130000000000003</v>
+      </c>
+      <c r="K182">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>300</v>
       </c>
@@ -5462,8 +8082,23 @@
       <c r="F183" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G183" t="s">
+        <v>345</v>
+      </c>
+      <c r="H183" t="s">
+        <v>354</v>
+      </c>
+      <c r="I183">
+        <v>-52.87</v>
+      </c>
+      <c r="J183">
+        <v>-40.049999999999997</v>
+      </c>
+      <c r="K183">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>301</v>
       </c>
@@ -5482,8 +8117,23 @@
       <c r="F184" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G184" t="s">
+        <v>345</v>
+      </c>
+      <c r="H184" t="s">
+        <v>354</v>
+      </c>
+      <c r="I184">
+        <v>-52.74</v>
+      </c>
+      <c r="J184">
+        <v>-39.01</v>
+      </c>
+      <c r="K184">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>302</v>
       </c>
@@ -5502,8 +8152,23 @@
       <c r="F185" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G185" t="s">
+        <v>345</v>
+      </c>
+      <c r="H185" t="s">
+        <v>354</v>
+      </c>
+      <c r="I185">
+        <v>-55.19</v>
+      </c>
+      <c r="J185">
+        <v>-41.22</v>
+      </c>
+      <c r="K185">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>303</v>
       </c>
@@ -5522,8 +8187,23 @@
       <c r="F186" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G186" t="s">
+        <v>345</v>
+      </c>
+      <c r="H186" t="s">
+        <v>354</v>
+      </c>
+      <c r="I186">
+        <v>-55.22</v>
+      </c>
+      <c r="J186">
+        <v>-41.3</v>
+      </c>
+      <c r="K186">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>304</v>
       </c>
@@ -5542,8 +8222,23 @@
       <c r="F187" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G187" t="s">
+        <v>345</v>
+      </c>
+      <c r="H187" t="s">
+        <v>354</v>
+      </c>
+      <c r="I187">
+        <v>-52.87</v>
+      </c>
+      <c r="J187">
+        <v>-40.049999999999997</v>
+      </c>
+      <c r="K187">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>305</v>
       </c>
@@ -5562,8 +8257,23 @@
       <c r="F188" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G188" t="s">
+        <v>345</v>
+      </c>
+      <c r="H188" t="s">
+        <v>354</v>
+      </c>
+      <c r="I188">
+        <v>-52.86</v>
+      </c>
+      <c r="J188">
+        <v>-40.11</v>
+      </c>
+      <c r="K188">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>306</v>
       </c>
@@ -5582,8 +8292,23 @@
       <c r="F189" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G189" t="s">
+        <v>345</v>
+      </c>
+      <c r="H189" t="s">
+        <v>354</v>
+      </c>
+      <c r="I189">
+        <v>-55.22</v>
+      </c>
+      <c r="J189">
+        <v>-41.26</v>
+      </c>
+      <c r="K189">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>307</v>
       </c>
@@ -5605,8 +8330,20 @@
       <c r="G190" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H190" t="s">
+        <v>354</v>
+      </c>
+      <c r="I190">
+        <v>-52.83</v>
+      </c>
+      <c r="J190">
+        <v>-40.119999999999997</v>
+      </c>
+      <c r="K190">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>308</v>
       </c>
@@ -5628,8 +8365,20 @@
       <c r="G191" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H191" t="s">
+        <v>354</v>
+      </c>
+      <c r="I191">
+        <v>-52.9</v>
+      </c>
+      <c r="J191">
+        <v>-40.21</v>
+      </c>
+      <c r="K191">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>309</v>
       </c>
@@ -5651,8 +8400,20 @@
       <c r="G192" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H192" t="s">
+        <v>354</v>
+      </c>
+      <c r="I192">
+        <v>-52.9</v>
+      </c>
+      <c r="J192">
+        <v>-40.21</v>
+      </c>
+      <c r="K192">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>310</v>
       </c>
@@ -5674,8 +8435,20 @@
       <c r="G193" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H193" t="s">
+        <v>354</v>
+      </c>
+      <c r="I193">
+        <v>-52.9</v>
+      </c>
+      <c r="J193">
+        <v>-40.21</v>
+      </c>
+      <c r="K193">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>311</v>
       </c>
@@ -5697,8 +8470,20 @@
       <c r="G194" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H194" t="s">
+        <v>346</v>
+      </c>
+      <c r="I194">
+        <v>-52.72</v>
+      </c>
+      <c r="J194">
+        <v>-39.08</v>
+      </c>
+      <c r="K194">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>312</v>
       </c>
@@ -5720,8 +8505,20 @@
       <c r="G195" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H195" t="s">
+        <v>346</v>
+      </c>
+      <c r="I195">
+        <v>-52.72</v>
+      </c>
+      <c r="J195">
+        <v>-39.08</v>
+      </c>
+      <c r="K195">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>313</v>
       </c>
@@ -5743,8 +8540,20 @@
       <c r="G196" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H196" t="s">
+        <v>354</v>
+      </c>
+      <c r="I196">
+        <v>-52.9</v>
+      </c>
+      <c r="J196">
+        <v>-40.21</v>
+      </c>
+      <c r="K196">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>314</v>
       </c>
@@ -5766,8 +8575,20 @@
       <c r="G197" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H197" t="s">
+        <v>354</v>
+      </c>
+      <c r="I197">
+        <v>-52.9</v>
+      </c>
+      <c r="J197">
+        <v>-40.21</v>
+      </c>
+      <c r="K197">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>315</v>
       </c>
@@ -5789,8 +8610,20 @@
       <c r="G198" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H198" t="s">
+        <v>346</v>
+      </c>
+      <c r="I198">
+        <v>-52.72</v>
+      </c>
+      <c r="J198">
+        <v>-39.08</v>
+      </c>
+      <c r="K198">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>316</v>
       </c>
@@ -5812,8 +8645,20 @@
       <c r="G199" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H199" t="s">
+        <v>354</v>
+      </c>
+      <c r="I199">
+        <v>-52.72</v>
+      </c>
+      <c r="J199">
+        <v>-39.08</v>
+      </c>
+      <c r="K199">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>317</v>
       </c>
@@ -5835,8 +8680,20 @@
       <c r="G200" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H200" t="s">
+        <v>354</v>
+      </c>
+      <c r="I200">
+        <v>-54.99</v>
+      </c>
+      <c r="J200">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K200">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>318</v>
       </c>
@@ -5858,8 +8715,20 @@
       <c r="G201" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H201" t="s">
+        <v>354</v>
+      </c>
+      <c r="I201">
+        <v>-54.99</v>
+      </c>
+      <c r="J201">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K201">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>319</v>
       </c>
@@ -5881,8 +8750,20 @@
       <c r="G202" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H202" t="s">
+        <v>354</v>
+      </c>
+      <c r="I202">
+        <v>-54.99</v>
+      </c>
+      <c r="J202">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K202">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>320</v>
       </c>
@@ -5904,8 +8785,20 @@
       <c r="G203" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H203" t="s">
+        <v>354</v>
+      </c>
+      <c r="I203">
+        <v>-54.99</v>
+      </c>
+      <c r="J203">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K203">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>321</v>
       </c>
@@ -5927,8 +8820,20 @@
       <c r="G204" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H204" t="s">
+        <v>354</v>
+      </c>
+      <c r="I204">
+        <v>-54.99</v>
+      </c>
+      <c r="J204">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K204">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>322</v>
       </c>
@@ -5950,8 +8855,20 @@
       <c r="G205" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H205" t="s">
+        <v>354</v>
+      </c>
+      <c r="I205">
+        <v>-54.99</v>
+      </c>
+      <c r="J205">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K205">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>323</v>
       </c>
@@ -5973,8 +8890,20 @@
       <c r="G206" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H206" t="s">
+        <v>354</v>
+      </c>
+      <c r="I206">
+        <v>-54.99</v>
+      </c>
+      <c r="J206">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K206">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>324</v>
       </c>
@@ -5996,8 +8925,20 @@
       <c r="G207" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H207" t="s">
+        <v>354</v>
+      </c>
+      <c r="I207">
+        <v>-54.99</v>
+      </c>
+      <c r="J207">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K207">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>325</v>
       </c>
@@ -6019,8 +8960,20 @@
       <c r="G208" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H208" t="s">
+        <v>346</v>
+      </c>
+      <c r="I208">
+        <v>-54.99</v>
+      </c>
+      <c r="J208">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K208">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>326</v>
       </c>
@@ -6042,8 +8995,20 @@
       <c r="G209" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H209" t="s">
+        <v>354</v>
+      </c>
+      <c r="I209">
+        <v>-54.99</v>
+      </c>
+      <c r="J209">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K209">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>327</v>
       </c>
@@ -6065,8 +9030,20 @@
       <c r="G210" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H210" t="s">
+        <v>354</v>
+      </c>
+      <c r="I210">
+        <v>-54.99</v>
+      </c>
+      <c r="J210">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K210">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>328</v>
       </c>
@@ -6088,8 +9065,20 @@
       <c r="G211" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H211" t="s">
+        <v>354</v>
+      </c>
+      <c r="I211">
+        <v>-54.99</v>
+      </c>
+      <c r="J211">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K211">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>329</v>
       </c>
@@ -6111,8 +9100,20 @@
       <c r="G212" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H212" t="s">
+        <v>354</v>
+      </c>
+      <c r="I212">
+        <v>-54.99</v>
+      </c>
+      <c r="J212">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K212">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>330</v>
       </c>
@@ -6134,8 +9135,20 @@
       <c r="G213" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H213" t="s">
+        <v>354</v>
+      </c>
+      <c r="I213">
+        <v>-54.99</v>
+      </c>
+      <c r="J213">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K213">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>331</v>
       </c>
@@ -6157,8 +9170,20 @@
       <c r="G214" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H214" t="s">
+        <v>354</v>
+      </c>
+      <c r="I214">
+        <v>-54.99</v>
+      </c>
+      <c r="J214">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K214">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>332</v>
       </c>
@@ -6180,8 +9205,20 @@
       <c r="G215" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H215" t="s">
+        <v>354</v>
+      </c>
+      <c r="I215">
+        <v>-54.99</v>
+      </c>
+      <c r="J215">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K215">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>333</v>
       </c>
@@ -6203,8 +9240,20 @@
       <c r="G216" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H216" t="s">
+        <v>346</v>
+      </c>
+      <c r="I216">
+        <v>-54.99</v>
+      </c>
+      <c r="J216">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K216">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>334</v>
       </c>
@@ -6226,8 +9275,20 @@
       <c r="G217" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H217" t="s">
+        <v>346</v>
+      </c>
+      <c r="I217">
+        <v>-54.99</v>
+      </c>
+      <c r="J217">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K217">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>335</v>
       </c>
@@ -6249,8 +9310,20 @@
       <c r="G218" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H218" t="s">
+        <v>354</v>
+      </c>
+      <c r="I218">
+        <v>-54.99</v>
+      </c>
+      <c r="J218">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K218">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>336</v>
       </c>
@@ -6272,8 +9345,20 @@
       <c r="G219" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H219" t="s">
+        <v>354</v>
+      </c>
+      <c r="I219">
+        <v>-54.99</v>
+      </c>
+      <c r="J219">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K219">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>337</v>
       </c>
@@ -6295,8 +9380,20 @@
       <c r="G220" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H220" t="s">
+        <v>354</v>
+      </c>
+      <c r="I220">
+        <v>-54.99</v>
+      </c>
+      <c r="J220">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K220">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>338</v>
       </c>
@@ -6317,6 +9414,18 @@
       </c>
       <c r="G221" t="s">
         <v>53</v>
+      </c>
+      <c r="H221" t="s">
+        <v>354</v>
+      </c>
+      <c r="I221">
+        <v>-54.99</v>
+      </c>
+      <c r="J221">
+        <v>-49.104999999999997</v>
+      </c>
+      <c r="K221">
+        <v>2016</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Myctophid_Catalog.xlsx
+++ b/Data/Myctophid_Catalog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -1176,7 +1176,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1184,6 +1184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1466,28 +1467,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1501,7 +1502,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1518,7 +1519,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1535,7 +1536,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -1549,7 +1550,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1563,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -1571,13 +1572,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1591,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>80</v>
       </c>
@@ -1605,7 +1606,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1619,7 +1620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1633,7 +1634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -1647,25 +1648,25 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>339</v>
       </c>
       <c r="C14" s="1">
         <f>SUM(C4:C13)</f>
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D14" s="1">
         <f>SUM(D4:D13)</f>
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>348</v>
       </c>
@@ -1674,9 +1675,19 @@
         <v>380.6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>349</v>
+      </c>
+      <c r="B19" s="6">
+        <f>D14*8</f>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <f>SUM(B18:B19)</f>
+        <v>1260.5999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1692,17 +1703,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A180" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C184" sqref="C184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1737,7 +1748,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -1772,7 +1783,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -1807,7 +1818,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>122</v>
       </c>
@@ -1842,7 +1853,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>123</v>
       </c>
@@ -1877,7 +1888,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -1912,7 +1923,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -1947,7 +1958,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -1982,7 +1993,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>127</v>
       </c>
@@ -2017,7 +2028,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>128</v>
       </c>
@@ -2052,7 +2063,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>129</v>
       </c>
@@ -2087,7 +2098,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>130</v>
       </c>
@@ -2122,7 +2133,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>131</v>
       </c>
@@ -2157,7 +2168,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>132</v>
       </c>
@@ -2192,7 +2203,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>133</v>
       </c>
@@ -2227,7 +2238,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>134</v>
       </c>
@@ -2262,7 +2273,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>135</v>
       </c>
@@ -2297,7 +2308,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>136</v>
       </c>
@@ -2332,7 +2343,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>137</v>
       </c>
@@ -2367,7 +2378,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>138</v>
       </c>
@@ -2402,7 +2413,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>139</v>
       </c>
@@ -2437,7 +2448,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>140</v>
       </c>
@@ -2472,7 +2483,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>141</v>
       </c>
@@ -2507,7 +2518,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>142</v>
       </c>
@@ -2542,7 +2553,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>143</v>
       </c>
@@ -2577,7 +2588,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>144</v>
       </c>
@@ -2612,7 +2623,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>145</v>
       </c>
@@ -2647,7 +2658,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>146</v>
       </c>
@@ -2682,7 +2693,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>147</v>
       </c>
@@ -2717,7 +2728,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>148</v>
       </c>
@@ -2752,7 +2763,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>149</v>
       </c>
@@ -2787,7 +2798,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>150</v>
       </c>
@@ -2822,7 +2833,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>151</v>
       </c>
@@ -2857,7 +2868,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>152</v>
       </c>
@@ -2892,7 +2903,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>153</v>
       </c>
@@ -2927,7 +2938,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>154</v>
       </c>
@@ -2962,7 +2973,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>155</v>
       </c>
@@ -2988,7 +2999,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>156</v>
       </c>
@@ -3023,7 +3034,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>157</v>
       </c>
@@ -3058,7 +3069,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>158</v>
       </c>
@@ -3093,7 +3104,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>159</v>
       </c>
@@ -3128,7 +3139,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>160</v>
       </c>
@@ -3163,7 +3174,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>161</v>
       </c>
@@ -3198,7 +3209,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>162</v>
       </c>
@@ -3233,7 +3244,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>163</v>
       </c>
@@ -3268,7 +3279,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>164</v>
       </c>
@@ -3303,7 +3314,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>165</v>
       </c>
@@ -3338,7 +3349,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>166</v>
       </c>
@@ -3373,7 +3384,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>167</v>
       </c>
@@ -3408,7 +3419,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>168</v>
       </c>
@@ -3443,7 +3454,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>169</v>
       </c>
@@ -3478,7 +3489,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>170</v>
       </c>
@@ -3513,7 +3524,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>171</v>
       </c>
@@ -3548,7 +3559,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>172</v>
       </c>
@@ -3583,7 +3594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>173</v>
       </c>
@@ -3618,7 +3629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>174</v>
       </c>
@@ -3653,7 +3664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>175</v>
       </c>
@@ -3688,7 +3699,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>176</v>
       </c>
@@ -3723,7 +3734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>177</v>
       </c>
@@ -3758,7 +3769,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>178</v>
       </c>
@@ -3793,7 +3804,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>179</v>
       </c>
@@ -3828,7 +3839,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>180</v>
       </c>
@@ -3863,7 +3874,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>181</v>
       </c>
@@ -3898,7 +3909,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>182</v>
       </c>
@@ -3933,7 +3944,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>183</v>
       </c>
@@ -3968,7 +3979,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>184</v>
       </c>
@@ -4003,7 +4014,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>185</v>
       </c>
@@ -4038,7 +4049,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>186</v>
       </c>
@@ -4073,7 +4084,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>187</v>
       </c>
@@ -4108,7 +4119,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>188</v>
       </c>
@@ -4143,7 +4154,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>189</v>
       </c>
@@ -4178,7 +4189,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>190</v>
       </c>
@@ -4213,7 +4224,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>191</v>
       </c>
@@ -4248,7 +4259,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>192</v>
       </c>
@@ -4283,7 +4294,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>193</v>
       </c>
@@ -4318,7 +4329,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>194</v>
       </c>
@@ -4353,7 +4364,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>195</v>
       </c>
@@ -4388,7 +4399,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>196</v>
       </c>
@@ -4423,7 +4434,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>197</v>
       </c>
@@ -4458,7 +4469,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>198</v>
       </c>
@@ -4493,7 +4504,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>199</v>
       </c>
@@ -4528,7 +4539,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>200</v>
       </c>
@@ -4563,7 +4574,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>201</v>
       </c>
@@ -4598,7 +4609,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>202</v>
       </c>
@@ -4633,7 +4644,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>203</v>
       </c>
@@ -4668,7 +4679,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>204</v>
       </c>
@@ -4703,7 +4714,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>205</v>
       </c>
@@ -4738,7 +4749,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>206</v>
       </c>
@@ -4773,7 +4784,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>207</v>
       </c>
@@ -4808,7 +4819,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>208</v>
       </c>
@@ -4843,7 +4854,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>209</v>
       </c>
@@ -4878,7 +4889,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>210</v>
       </c>
@@ -4913,7 +4924,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>212</v>
       </c>
@@ -4948,7 +4959,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>213</v>
       </c>
@@ -4983,7 +4994,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>214</v>
       </c>
@@ -5018,7 +5029,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>215</v>
       </c>
@@ -5053,7 +5064,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>216</v>
       </c>
@@ -5088,7 +5099,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>217</v>
       </c>
@@ -5123,7 +5134,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>218</v>
       </c>
@@ -5158,7 +5169,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>219</v>
       </c>
@@ -5193,7 +5204,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>220</v>
       </c>
@@ -5228,7 +5239,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>221</v>
       </c>
@@ -5263,7 +5274,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>222</v>
       </c>
@@ -5298,7 +5309,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>223</v>
       </c>
@@ -5333,7 +5344,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>224</v>
       </c>
@@ -5368,7 +5379,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>225</v>
       </c>
@@ -5403,7 +5414,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>226</v>
       </c>
@@ -5438,7 +5449,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>227</v>
       </c>
@@ -5473,7 +5484,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>228</v>
       </c>
@@ -5508,7 +5519,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>229</v>
       </c>
@@ -5543,7 +5554,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>230</v>
       </c>
@@ -5578,7 +5589,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>231</v>
       </c>
@@ -5613,7 +5624,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>232</v>
       </c>
@@ -5648,7 +5659,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>233</v>
       </c>
@@ -5683,7 +5694,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>234</v>
       </c>
@@ -5718,7 +5729,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>235</v>
       </c>
@@ -5753,7 +5764,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>236</v>
       </c>
@@ -5788,7 +5799,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>237</v>
       </c>
@@ -5823,7 +5834,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>238</v>
       </c>
@@ -5858,7 +5869,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>211</v>
       </c>
@@ -5893,7 +5904,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>239</v>
       </c>
@@ -5928,7 +5939,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>240</v>
       </c>
@@ -5963,7 +5974,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>241</v>
       </c>
@@ -5998,7 +6009,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>242</v>
       </c>
@@ -6033,7 +6044,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>243</v>
       </c>
@@ -6068,7 +6079,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>244</v>
       </c>
@@ -6103,7 +6114,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>245</v>
       </c>
@@ -6138,7 +6149,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>246</v>
       </c>
@@ -6173,7 +6184,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>247</v>
       </c>
@@ -6208,7 +6219,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>342</v>
       </c>
@@ -6243,7 +6254,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>248</v>
       </c>
@@ -6278,7 +6289,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>249</v>
       </c>
@@ -6313,7 +6324,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>250</v>
       </c>
@@ -6348,7 +6359,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>251</v>
       </c>
@@ -6383,7 +6394,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>252</v>
       </c>
@@ -6418,7 +6429,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>253</v>
       </c>
@@ -6453,7 +6464,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>254</v>
       </c>
@@ -6488,7 +6499,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>255</v>
       </c>
@@ -6523,7 +6534,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>256</v>
       </c>
@@ -6558,7 +6569,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>257</v>
       </c>
@@ -6593,7 +6604,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>258</v>
       </c>
@@ -6628,7 +6639,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>259</v>
       </c>
@@ -6663,7 +6674,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>260</v>
       </c>
@@ -6698,7 +6709,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>261</v>
       </c>
@@ -6733,7 +6744,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>262</v>
       </c>
@@ -6768,7 +6779,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>263</v>
       </c>
@@ -6803,7 +6814,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>264</v>
       </c>
@@ -6838,7 +6849,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>265</v>
       </c>
@@ -6873,7 +6884,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>266</v>
       </c>
@@ -6908,7 +6919,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>267</v>
       </c>
@@ -6943,7 +6954,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>268</v>
       </c>
@@ -6978,7 +6989,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>269</v>
       </c>
@@ -7013,7 +7024,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>270</v>
       </c>
@@ -7048,7 +7059,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>271</v>
       </c>
@@ -7083,7 +7094,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>272</v>
       </c>
@@ -7118,7 +7129,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>273</v>
       </c>
@@ -7153,7 +7164,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>274</v>
       </c>
@@ -7188,7 +7199,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>275</v>
       </c>
@@ -7223,7 +7234,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>276</v>
       </c>
@@ -7258,7 +7269,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>277</v>
       </c>
@@ -7293,7 +7304,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>278</v>
       </c>
@@ -7328,7 +7339,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>279</v>
       </c>
@@ -7363,7 +7374,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>280</v>
       </c>
@@ -7398,7 +7409,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>281</v>
       </c>
@@ -7433,7 +7444,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>282</v>
       </c>
@@ -7468,7 +7479,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>283</v>
       </c>
@@ -7503,7 +7514,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>284</v>
       </c>
@@ -7538,7 +7549,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>285</v>
       </c>
@@ -7573,7 +7584,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>286</v>
       </c>
@@ -7608,7 +7619,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>287</v>
       </c>
@@ -7643,7 +7654,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>288</v>
       </c>
@@ -7678,7 +7689,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>289</v>
       </c>
@@ -7713,7 +7724,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>290</v>
       </c>
@@ -7748,7 +7759,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>291</v>
       </c>
@@ -7783,7 +7794,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>292</v>
       </c>
@@ -7818,7 +7829,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>293</v>
       </c>
@@ -7853,7 +7864,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>294</v>
       </c>
@@ -7888,7 +7899,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>295</v>
       </c>
@@ -7923,7 +7934,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>296</v>
       </c>
@@ -7958,7 +7969,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>297</v>
       </c>
@@ -7993,7 +8004,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>298</v>
       </c>
@@ -8028,7 +8039,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>299</v>
       </c>
@@ -8063,7 +8074,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>300</v>
       </c>
@@ -8098,7 +8109,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>301</v>
       </c>
@@ -8133,7 +8144,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>302</v>
       </c>
@@ -8168,7 +8179,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>303</v>
       </c>
@@ -8203,7 +8214,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>304</v>
       </c>
@@ -8238,7 +8249,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>305</v>
       </c>
@@ -8273,7 +8284,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>306</v>
       </c>
@@ -8308,7 +8319,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>307</v>
       </c>
@@ -8343,7 +8354,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>308</v>
       </c>
@@ -8378,7 +8389,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>309</v>
       </c>
@@ -8413,7 +8424,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>310</v>
       </c>
@@ -8448,7 +8459,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>311</v>
       </c>
@@ -8483,7 +8494,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>312</v>
       </c>
@@ -8518,7 +8529,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>313</v>
       </c>
@@ -8553,7 +8564,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>314</v>
       </c>
@@ -8588,7 +8599,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>315</v>
       </c>
@@ -8623,7 +8634,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>316</v>
       </c>
@@ -8658,7 +8669,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>317</v>
       </c>
@@ -8693,7 +8704,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>318</v>
       </c>
@@ -8728,7 +8739,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>319</v>
       </c>
@@ -8763,7 +8774,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>320</v>
       </c>
@@ -8798,7 +8809,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>321</v>
       </c>
@@ -8833,7 +8844,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>322</v>
       </c>
@@ -8868,7 +8879,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>323</v>
       </c>
@@ -8903,7 +8914,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>324</v>
       </c>
@@ -8938,7 +8949,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>325</v>
       </c>
@@ -8973,7 +8984,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>326</v>
       </c>
@@ -9008,7 +9019,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>327</v>
       </c>
@@ -9043,7 +9054,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>328</v>
       </c>
@@ -9078,7 +9089,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>329</v>
       </c>
@@ -9113,7 +9124,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>330</v>
       </c>
@@ -9148,7 +9159,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>331</v>
       </c>
@@ -9183,7 +9194,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>332</v>
       </c>
@@ -9218,7 +9229,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>333</v>
       </c>
@@ -9253,7 +9264,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>334</v>
       </c>
@@ -9288,7 +9299,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>335</v>
       </c>
@@ -9323,7 +9334,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>336</v>
       </c>
@@ -9358,7 +9369,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>337</v>
       </c>
@@ -9393,7 +9404,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>338</v>
       </c>
